--- a/渠道文档/渠道服务开发.xlsx
+++ b/渠道文档/渠道服务开发.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>渠道名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,26 +243,10 @@
     <t>com.pzws.baidu</t>
   </si>
   <si>
-    <t>游戏群</t>
-  </si>
-  <si>
-    <t>ClientID:88080487af4257e06deed6b2c8ba7b3e</t>
-  </si>
-  <si>
-    <t>ClientSecret:a147badc16c49a5a886bbf66fa54c7d7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海马</t>
-  </si>
-  <si>
     <t>APP_ID:d7492b8602d1a65f5165a5d84a7b7202</t>
   </si>
   <si>
     <t>APP_KEY:07ea9899e1e47704e62c0fd82c211826</t>
-  </si>
-  <si>
-    <t>com.pzws.u9.hm</t>
   </si>
   <si>
     <t>乐视</t>
@@ -383,6 +367,34 @@
   </si>
   <si>
     <t>Secret Key:8641b94f063e2d0c8f93533574ef67fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientSecret:a147badc16c49a5a886bbf66fa54c7d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientID:88080487af4257e06deed6b2c8ba7b3e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手盟(九盟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海马玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,17 +825,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
     <col min="4" max="4" width="65.88671875" customWidth="1"/>
     <col min="5" max="5" width="49.21875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -895,16 +907,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>50</v>
@@ -918,7 +930,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -932,7 +944,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>53</v>
@@ -947,124 +959,127 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>102</v>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1072,54 +1087,45 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>57</v>
@@ -1165,7 +1171,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,6 +1186,22 @@
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,7 +1351,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1385,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1414,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -1439,7 +1461,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">

--- a/渠道文档/渠道服务开发.xlsx
+++ b/渠道文档/渠道服务开发.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>渠道名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,22 @@
   </si>
   <si>
     <t>海马玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_app_id：2381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_app_key:ac7fe843e6386aa8ca3208e850b54a13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_app_secret：ee90adf1d1892eb8b490c40280fee681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_channel:2381_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,16 +843,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A15:A19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="65.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
     <col min="5" max="5" width="49.21875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1073,9 +1089,18 @@
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">

--- a/渠道文档/渠道服务开发.xlsx
+++ b/渠道文档/渠道服务开发.xlsx
@@ -386,19 +386,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手盟(九盟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海马玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zy_app_id：2381</t>
+    <t>手盟(九玩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用汇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,11 +402,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zy_app_secret：ee90adf1d1892eb8b490c40280fee681</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zy_channel:2381_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_app_secret:ee90adf1d1892eb8b490c40280fee681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy_app_id:2381</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1060,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>109</v>
+      <c r="A14" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>70</v>
@@ -1072,7 +1072,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1090,44 +1090,43 @@
         <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>107</v>
+      <c r="A18" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>108</v>
+      <c r="A19" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="3"/>
